--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4887A913-FCE7-414F-A937-3D91382296E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D599DB7D-8A52-374A-92C3-06996E5E6C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
   <sheets>
     <sheet name="OM_Exp1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>OM_Name</t>
   </si>
@@ -51,15 +51,6 @@
     <t>Growth_M (0,0)</t>
   </si>
   <si>
-    <t>Growth_M (15,0)</t>
-  </si>
-  <si>
-    <t>Growth_M (0,15)</t>
-  </si>
-  <si>
-    <t>Growth_M (15,15)</t>
-  </si>
-  <si>
     <t>Growth_M (30,30)</t>
   </si>
   <si>
@@ -88,6 +79,24 @@
   </si>
   <si>
     <t>SexRatio (F30, M70)</t>
+  </si>
+  <si>
+    <t>SexRatio_NoDiff (F60, M40)</t>
+  </si>
+  <si>
+    <t>SexRatio_NoMortDiff (F60, M40)</t>
+  </si>
+  <si>
+    <t>SexRatio_NoGrwthDiff (F60, M40)</t>
+  </si>
+  <si>
+    <t>Growth_M (10,0)</t>
+  </si>
+  <si>
+    <t>Growth_M (0,10)</t>
+  </si>
+  <si>
+    <t>Growth_M (10,10)</t>
   </si>
 </sst>
 </file>
@@ -144,14 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8BB4C-3775-0945-9C13-0D6239EF8F83}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,10 +509,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -514,29 +520,29 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -552,57 +558,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C767B-2F74-2747-8052-199BF23D4AB8}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0.9</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C4">
+        <v>0.9</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C5">
+        <v>0.9</v>
+      </c>
+      <c r="D5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D599DB7D-8A52-374A-92C3-06996E5E6C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CA4BD-4386-DD43-85B3-036780A96D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>OM_Name</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Growth_M (10,10)</t>
+  </si>
+  <si>
+    <t>Growth_M (10,30)</t>
+  </si>
+  <si>
+    <t>Growth_M (30,10)</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8BB4C-3775-0945-9C13-0D6239EF8F83}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,6 +555,28 @@
       </c>
       <c r="C6">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CA4BD-4386-DD43-85B3-036780A96D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D66BB-670C-B841-84A6-1FDA37C90F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
   <sheets>
     <sheet name="OM_Exp1" sheetId="1" r:id="rId1"/>
@@ -90,19 +90,19 @@
     <t>SexRatio_NoGrwthDiff (F60, M40)</t>
   </si>
   <si>
-    <t>Growth_M (10,0)</t>
-  </si>
-  <si>
-    <t>Growth_M (0,10)</t>
-  </si>
-  <si>
-    <t>Growth_M (10,10)</t>
-  </si>
-  <si>
-    <t>Growth_M (10,30)</t>
-  </si>
-  <si>
-    <t>Growth_M (30,10)</t>
+    <t>Growth_M (15,0)</t>
+  </si>
+  <si>
+    <t>Growth_M (0,15)</t>
+  </si>
+  <si>
+    <t>Growth_M (15,15)</t>
+  </si>
+  <si>
+    <t>Growth_M (15,30)</t>
+  </si>
+  <si>
+    <t>Growth_M (30,15)</t>
   </si>
 </sst>
 </file>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8BB4C-3775-0945-9C13-0D6239EF8F83}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -540,10 +540,10 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -562,7 +562,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C7">
         <v>0.7</v>
@@ -576,7 +576,7 @@
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C767B-2F74-2747-8052-199BF23D4AB8}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -636,10 +636,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -650,10 +650,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D4">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -664,10 +664,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D66BB-670C-B841-84A6-1FDA37C90F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F816D367-622D-D143-8868-8FDE75DC53BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
   <sheets>
     <sheet name="OM_Exp1" sheetId="1" r:id="rId1"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8BB4C-3775-0945-9C13-0D6239EF8F83}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -540,10 +540,10 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -562,7 +562,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
         <v>0.7</v>
@@ -576,7 +576,7 @@
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C767B-2F74-2747-8052-199BF23D4AB8}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,10 +622,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D2">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -636,10 +636,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D3">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -650,10 +650,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -664,10 +664,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F816D367-622D-D143-8868-8FDE75DC53BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3517D8BA-46D0-874C-86A2-B141C0194457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
@@ -57,39 +57,6 @@
     <t>Sex_Ratios</t>
   </si>
   <si>
-    <t>0.6,0.4</t>
-  </si>
-  <si>
-    <t>0.7,0.3</t>
-  </si>
-  <si>
-    <t>0.4,0.6</t>
-  </si>
-  <si>
-    <t>0.3,0.7</t>
-  </si>
-  <si>
-    <t>SexRatio (F60, M40)</t>
-  </si>
-  <si>
-    <t>SexRatio (F70, M30)</t>
-  </si>
-  <si>
-    <t>SexRatio (F40, M60)</t>
-  </si>
-  <si>
-    <t>SexRatio (F30, M70)</t>
-  </si>
-  <si>
-    <t>SexRatio_NoDiff (F60, M40)</t>
-  </si>
-  <si>
-    <t>SexRatio_NoMortDiff (F60, M40)</t>
-  </si>
-  <si>
-    <t>SexRatio_NoGrwthDiff (F60, M40)</t>
-  </si>
-  <si>
     <t>Growth_M (15,0)</t>
   </si>
   <si>
@@ -103,6 +70,39 @@
   </si>
   <si>
     <t>Growth_M (30,15)</t>
+  </si>
+  <si>
+    <t>0.65,0.35</t>
+  </si>
+  <si>
+    <t>0.35,0.65</t>
+  </si>
+  <si>
+    <t>0.55,0.45</t>
+  </si>
+  <si>
+    <t>0.45,0.55</t>
+  </si>
+  <si>
+    <t>SexRatio (F55, M45)</t>
+  </si>
+  <si>
+    <t>SexRatio (F65, M35)</t>
+  </si>
+  <si>
+    <t>SexRatio (F45, M55)</t>
+  </si>
+  <si>
+    <t>SexRatio (F35, M65)</t>
+  </si>
+  <si>
+    <t>SexRatio_NoGrwthDiff (F55, M45)</t>
+  </si>
+  <si>
+    <t>SexRatio_NoMortDiff (F55, M45)</t>
+  </si>
+  <si>
+    <t>SexRatio_NoDiff (F55, M45)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,10 +515,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -526,24 +526,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -559,10 +559,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C7">
         <v>0.7</v>
@@ -570,13 +570,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +589,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,83 +616,83 @@
     </row>
     <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D2">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D4">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>

--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3517D8BA-46D0-874C-86A2-B141C0194457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D626DBD-DC44-C643-A83A-DD8422E4AA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
   <sheets>
     <sheet name="OM_Exp1" sheetId="1" r:id="rId1"/>
     <sheet name="OM_Exp2" sheetId="2" r:id="rId2"/>
+    <sheet name="OM_Exp3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>OM_Name</t>
   </si>
@@ -103,6 +104,15 @@
   </si>
   <si>
     <t>SexRatio_NoDiff (F55, M45)</t>
+  </si>
+  <si>
+    <t>0.5,0.5</t>
+  </si>
+  <si>
+    <t>SexRatio (F50, M50)</t>
+  </si>
+  <si>
+    <t>SexRatio (F50, M50, NoDiff)</t>
   </si>
 </sst>
 </file>
@@ -480,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8BB4C-3775-0945-9C13-0D6239EF8F83}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -589,7 +599,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,4 +740,124 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4F2E9B-615B-2047-9C14-64385B82FF34}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0.85</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0.85</v>
+      </c>
+      <c r="D3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>0.85</v>
+      </c>
+      <c r="D4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.85</v>
+      </c>
+      <c r="D5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>0.85</v>
+      </c>
+      <c r="D6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D626DBD-DC44-C643-A83A-DD8422E4AA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A157C9-AFA6-D64B-9FCB-DCA38A923956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>OM_Name</t>
   </si>
@@ -106,13 +106,34 @@
     <t>SexRatio_NoDiff (F55, M45)</t>
   </si>
   <si>
-    <t>0.5,0.5</t>
-  </si>
-  <si>
-    <t>SexRatio (F50, M50)</t>
-  </si>
-  <si>
-    <t>SexRatio (F50, M50, NoDiff)</t>
+    <t>comp_across_sex</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>Neff</t>
+  </si>
+  <si>
+    <t>Within_20_Mult</t>
+  </si>
+  <si>
+    <t>Within_60_Mult</t>
+  </si>
+  <si>
+    <t>Within_100_Mult</t>
+  </si>
+  <si>
+    <t>Across_20_Mult</t>
+  </si>
+  <si>
+    <t>Across_60_Mult</t>
+  </si>
+  <si>
+    <t>Across_100_Mult</t>
   </si>
 </sst>
 </file>
@@ -599,7 +620,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:D8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,24 +765,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4F2E9B-615B-2047-9C14-64385B82FF34}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -769,13 +794,16 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0.85</v>
@@ -783,13 +811,16 @@
       <c r="D2">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0.85</v>
@@ -797,13 +828,16 @@
       <c r="D3">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0.85</v>
@@ -811,13 +845,16 @@
       <c r="D4">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0.85</v>
@@ -825,13 +862,16 @@
       <c r="D5">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>0.85</v>
@@ -839,23 +879,26 @@
       <c r="D6">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A157C9-AFA6-D64B-9FCB-DCA38A923956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAEBB5D-2665-FE47-8135-5716DA3949DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>OM_Name</t>
   </si>
@@ -118,22 +118,28 @@
     <t>Neff</t>
   </si>
   <si>
-    <t>Within_20_Mult</t>
-  </si>
-  <si>
-    <t>Within_60_Mult</t>
-  </si>
-  <si>
-    <t>Within_100_Mult</t>
-  </si>
-  <si>
-    <t>Across_20_Mult</t>
-  </si>
-  <si>
-    <t>Across_60_Mult</t>
-  </si>
-  <si>
-    <t>Across_100_Mult</t>
+    <t>Within_20</t>
+  </si>
+  <si>
+    <t>Within_100</t>
+  </si>
+  <si>
+    <t>Across_20</t>
+  </si>
+  <si>
+    <t>Across_100</t>
+  </si>
+  <si>
+    <t>Within_50</t>
+  </si>
+  <si>
+    <t>Across_50</t>
+  </si>
+  <si>
+    <t>Within_150</t>
+  </si>
+  <si>
+    <t>Across_150</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,13 +192,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -213,9 +233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -359,7 +379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -501,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -765,10 +785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4F2E9B-615B-2047-9C14-64385B82FF34}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,12 +832,12 @@
         <v>0.85</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -829,12 +849,12 @@
         <v>0.85</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -851,7 +871,7 @@
     </row>
     <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -863,12 +883,12 @@
         <v>0.85</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -880,12 +900,12 @@
         <v>0.85</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -898,6 +918,40 @@
       </c>
       <c r="E7">
         <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>0.85</v>
+      </c>
+      <c r="D8">
+        <v>0.85</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>0.85</v>
+      </c>
+      <c r="D9">
+        <v>0.85</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAEBB5D-2665-FE47-8135-5716DA3949DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BAE697-EB48-CF42-8F1F-354D3B6B9D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
+    <workbookView xWindow="7540" yWindow="780" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
   <sheets>
-    <sheet name="OM_Exp1" sheetId="1" r:id="rId1"/>
-    <sheet name="OM_Exp2" sheetId="2" r:id="rId2"/>
-    <sheet name="OM_Exp3" sheetId="3" r:id="rId3"/>
+    <sheet name="OM_Exp1" sheetId="3" r:id="rId1"/>
+    <sheet name="OM_Exp2" sheetId="1" r:id="rId2"/>
+    <sheet name="OM_Exp3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>OM_Name</t>
   </si>
@@ -67,12 +67,6 @@
     <t>Growth_M (15,15)</t>
   </si>
   <si>
-    <t>Growth_M (15,30)</t>
-  </si>
-  <si>
-    <t>Growth_M (30,15)</t>
-  </si>
-  <si>
     <t>0.65,0.35</t>
   </si>
   <si>
@@ -85,27 +79,6 @@
     <t>0.45,0.55</t>
   </si>
   <si>
-    <t>SexRatio (F55, M45)</t>
-  </si>
-  <si>
-    <t>SexRatio (F65, M35)</t>
-  </si>
-  <si>
-    <t>SexRatio (F45, M55)</t>
-  </si>
-  <si>
-    <t>SexRatio (F35, M65)</t>
-  </si>
-  <si>
-    <t>SexRatio_NoGrwthDiff (F55, M45)</t>
-  </si>
-  <si>
-    <t>SexRatio_NoMortDiff (F55, M45)</t>
-  </si>
-  <si>
-    <t>SexRatio_NoDiff (F55, M45)</t>
-  </si>
-  <si>
     <t>comp_across_sex</t>
   </si>
   <si>
@@ -140,6 +113,18 @@
   </si>
   <si>
     <t>Across_150</t>
+  </si>
+  <si>
+    <t>SR (F55, M45)</t>
+  </si>
+  <si>
+    <t>SR (F65, M35)</t>
+  </si>
+  <si>
+    <t>SR (F45, M55)</t>
+  </si>
+  <si>
+    <t>SR (F35, M65)</t>
   </si>
 </sst>
 </file>
@@ -212,7 +197,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -233,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -379,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,274 +506,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8BB4C-3775-0945-9C13-0D6239EF8F83}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0.85</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.85</v>
-      </c>
-      <c r="C5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.7</v>
-      </c>
-      <c r="C6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.85</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.7</v>
-      </c>
-      <c r="C8">
-        <v>0.85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C767B-2F74-2747-8052-199BF23D4AB8}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>0.85</v>
-      </c>
-      <c r="D2">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>0.85</v>
-      </c>
-      <c r="D3">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>0.85</v>
-      </c>
-      <c r="D4">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>0.85</v>
-      </c>
-      <c r="D5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0.85</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4F2E9B-615B-2047-9C14-64385B82FF34}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -815,15 +544,15 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0.85</v>
@@ -832,15 +561,15 @@
         <v>0.85</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0.85</v>
@@ -854,10 +583,10 @@
     </row>
     <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0.85</v>
@@ -871,10 +600,10 @@
     </row>
     <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0.85</v>
@@ -883,15 +612,15 @@
         <v>0.85</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0.85</v>
@@ -905,10 +634,10 @@
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0.85</v>
@@ -922,10 +651,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0.85</v>
@@ -939,10 +668,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0.85</v>
@@ -953,6 +682,192 @@
       <c r="E9">
         <v>75</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8BB4C-3775-0945-9C13-0D6239EF8F83}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.85</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.85</v>
+      </c>
+      <c r="C5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.7</v>
+      </c>
+      <c r="C6">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C767B-2F74-2747-8052-199BF23D4AB8}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0.85</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.85</v>
+      </c>
+      <c r="D3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0.85</v>
+      </c>
+      <c r="D4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.85</v>
+      </c>
+      <c r="D5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BAE697-EB48-CF42-8F1F-354D3B6B9D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AE58A8-4EB2-4745-A25C-ED2F49C5F91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="780" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
   <sheets>
     <sheet name="OM_Exp1" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>OM_Name</t>
   </si>
@@ -49,36 +49,9 @@
     <t>natmort_control_fct</t>
   </si>
   <si>
-    <t>Growth_M (0,0)</t>
-  </si>
-  <si>
-    <t>Growth_M (30,30)</t>
-  </si>
-  <si>
     <t>Sex_Ratios</t>
   </si>
   <si>
-    <t>Growth_M (15,0)</t>
-  </si>
-  <si>
-    <t>Growth_M (0,15)</t>
-  </si>
-  <si>
-    <t>Growth_M (15,15)</t>
-  </si>
-  <si>
-    <t>0.65,0.35</t>
-  </si>
-  <si>
-    <t>0.35,0.65</t>
-  </si>
-  <si>
-    <t>0.55,0.45</t>
-  </si>
-  <si>
-    <t>0.45,0.55</t>
-  </si>
-  <si>
     <t>comp_across_sex</t>
   </si>
   <si>
@@ -115,23 +88,41 @@
     <t>Across_150</t>
   </si>
   <si>
-    <t>SR (F55, M45)</t>
-  </si>
-  <si>
-    <t>SR (F65, M35)</t>
-  </si>
-  <si>
-    <t>SR (F45, M55)</t>
-  </si>
-  <si>
-    <t>SR (F35, M65)</t>
+    <t>SR (F60, M40)</t>
+  </si>
+  <si>
+    <t>0.60,0.40</t>
+  </si>
+  <si>
+    <t>0.40,0.60</t>
+  </si>
+  <si>
+    <t>0.50,0.50</t>
+  </si>
+  <si>
+    <t>SR (F50, M50)</t>
+  </si>
+  <si>
+    <t>SR (F40, M60)</t>
+  </si>
+  <si>
+    <t>Grwth0_Mort0</t>
+  </si>
+  <si>
+    <t>Grwth15_Mort0</t>
+  </si>
+  <si>
+    <t>Grwth15_Mort15</t>
+  </si>
+  <si>
+    <t>Grwth0_Mort15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +135,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -200,6 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +516,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -544,21 +543,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D2">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -566,16 +565,16 @@
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D3">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -583,16 +582,16 @@
     </row>
     <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D4">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -600,16 +599,16 @@
     </row>
     <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D5">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -617,16 +616,16 @@
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D6">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -634,16 +633,16 @@
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D7">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -651,16 +650,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D8">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E8">
         <v>75</v>
@@ -668,16 +667,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D9">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E9">
         <v>75</v>
@@ -690,10 +689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8BB4C-3775-0945-9C13-0D6239EF8F83}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,7 +715,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -727,10 +726,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -738,35 +737,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.7</v>
-      </c>
-      <c r="C6">
-        <v>0.7</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -776,10 +764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C767B-2F74-2747-8052-199BF23D4AB8}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -806,68 +794,45 @@
     </row>
     <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D2">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D3">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D4">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0.85</v>
-      </c>
-      <c r="D5">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+        <v>0.82499999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/generate_OMs.xlsx
+++ b/input/generate_OMs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AE58A8-4EB2-4745-A25C-ED2F49C5F91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E603085C-0CFD-D74C-BDCD-4987DC0FA852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{300BEDC4-A2BE-AF49-9D01-6F98FB1D297A}"/>
   </bookViews>
   <sheets>
     <sheet name="OM_Exp1" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>OM_Name</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Across_150</t>
   </si>
   <si>
-    <t>SR (F60, M40)</t>
-  </si>
-  <si>
     <t>0.60,0.40</t>
   </si>
   <si>
@@ -100,12 +97,6 @@
     <t>0.50,0.50</t>
   </si>
   <si>
-    <t>SR (F50, M50)</t>
-  </si>
-  <si>
-    <t>SR (F40, M60)</t>
-  </si>
-  <si>
     <t>Grwth0_Mort0</t>
   </si>
   <si>
@@ -116,6 +107,27 @@
   </si>
   <si>
     <t>Grwth0_Mort15</t>
+  </si>
+  <si>
+    <t>Fem60_Mal40</t>
+  </si>
+  <si>
+    <t>Fem50_Mal50</t>
+  </si>
+  <si>
+    <t>Fem40_Mal60</t>
+  </si>
+  <si>
+    <t>Fem60_Mal40_SameGrwth</t>
+  </si>
+  <si>
+    <t>Fem60_Mal40_SameMort</t>
+  </si>
+  <si>
+    <t>Fem40_Mal60_SameGrwth</t>
+  </si>
+  <si>
+    <t>Fem40_Mal60_SameMort</t>
   </si>
 </sst>
 </file>
@@ -217,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,7 +269,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -363,7 +375,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,7 +517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4F2E9B-615B-2047-9C14-64385B82FF34}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D8BB4C-3775-0945-9C13-0D6239EF8F83}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,7 +727,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -726,7 +738,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>0.82499999999999996</v>
@@ -737,7 +749,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -748,7 +760,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0.82499999999999996</v>
@@ -756,6 +768,9 @@
       <c r="C5">
         <v>0.82499999999999996</v>
       </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,10 +779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C767B-2F74-2747-8052-199BF23D4AB8}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,10 +809,10 @@
     </row>
     <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
       <c r="C2">
         <v>0.82499999999999996</v>
@@ -808,10 +823,10 @@
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>0.82499999999999996</v>
@@ -822,16 +837,72 @@
     </row>
     <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0.82499999999999996</v>
       </c>
       <c r="D4">
         <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
